--- a/aliasy_wydawcow.xlsx
+++ b/aliasy_wydawcow.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A598E8C-052F-43E8-BB70-F2D0072B2397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C0DF8-73E5-42CF-8F14-749B9059562E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="870" windowWidth="20985" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15585" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Wydawnictwo</t>
   </si>
@@ -286,13 +292,19 @@
   </si>
   <si>
     <t>Instytut Archeologii i Etnologii Polskiej Akademii Nauk</t>
+  </si>
+  <si>
+    <t>Papieski Wydział Teologiczny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papieski Wydział Teologiczny we Wrocławiu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +317,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -367,10 +386,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB6B48E0-5FF0-9741-A864-D657105640BB}" name="Tabela1" displayName="Tabela1" ref="A1:B56" totalsRowShown="0">
-  <autoFilter ref="A1:B56" xr:uid="{AA07A4D0-4776-DC40-BD3B-05C1CC52143B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B50">
-    <sortCondition ref="A1:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB6B48E0-5FF0-9741-A864-D657105640BB}" name="Tabela1" displayName="Tabela1" ref="A1:B57" totalsRowShown="0">
+  <autoFilter ref="A1:B57" xr:uid="{AA07A4D0-4776-DC40-BD3B-05C1CC52143B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0EA3FC83-906A-9F43-BDC7-457896DA0936}" name="ALIAS"/>
@@ -643,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C727"/>
+  <dimension ref="A1:C728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,35 +865,34 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -883,7 +901,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -892,133 +910,133 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -1027,96 +1045,101 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,6 +1159,7 @@
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3172,11 @@
     <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727" s="1"/>
     </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C728" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
